--- a/3_output/sensitivity_hwt/cont/metareg_hwt_cont.xlsx
+++ b/3_output/sensitivity_hwt/cont/metareg_hwt_cont.xlsx
@@ -915,26 +915,26 @@
     </row>
     <row r="2">
       <c r="B2">
-        <v>87.007069408269004</v>
+        <v>90.06230361732321</v>
       </c>
       <c r="D2">
-        <v>86.346062285225884</v>
+        <v>89.825360071696139</v>
       </c>
     </row>
     <row r="3">
       <c r="B3">
-        <v>0.41112003042343243</v>
+        <v>0.44425048099975889</v>
       </c>
       <c r="D3">
-        <v>0.5917810343263018</v>
+        <v>0.61546040289349646</v>
       </c>
     </row>
     <row r="4">
       <c r="B4">
-        <v>86.524185827632962</v>
+        <v>89.611860389179071</v>
       </c>
       <c r="D4">
-        <v>86.524185827632962</v>
+        <v>89.611860389179071</v>
       </c>
     </row>
     <row r="6">
@@ -942,19 +942,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>0.025318754106607961</v>
+        <v>0.034665692693108548</v>
       </c>
       <c r="D6" s="3">
-        <v>-0.37334193826459683</v>
+        <v>-0.3649604991361361</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="29">
-        <v>0.0016290539360891297</v>
+        <v>0.0017141435334295009</v>
       </c>
       <c r="J6" s="30">
-        <v>-0.35259386453756647</v>
+        <v>-0.34358859751293741</v>
       </c>
     </row>
     <row r="7">
@@ -962,19 +962,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="5">
-        <v>0.030804244052777905</v>
+        <v>0.045312535721370673</v>
       </c>
       <c r="D7" s="6">
-        <v>0.09896738240146298</v>
+        <v>0.11985252618411345</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="32">
-        <v>0.0030378239004470904</v>
+        <v>0.0034126267690998322</v>
       </c>
       <c r="J7" s="33">
-        <v>0.099920008436912969</v>
+        <v>0.12343041555033618</v>
       </c>
     </row>
     <row r="8">
@@ -982,19 +982,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="8">
-        <v>0.82192421483314193</v>
+        <v>0.76503537357233409</v>
       </c>
       <c r="D8" s="9">
-        <v>-3.7723735760750801</v>
+        <v>-3.0450797388742226</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="35">
-        <v>0.53625686987628696</v>
+        <v>0.50229446388643617</v>
       </c>
       <c r="J8" s="36">
-        <v>-3.528761356742534</v>
+        <v>-2.7836623248895931</v>
       </c>
     </row>
     <row r="9">
@@ -1002,19 +1002,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="11">
-        <v>0.41112003042343215</v>
+        <v>0.44425048099975861</v>
       </c>
       <c r="D9" s="12">
-        <v>0.00016170190465220283</v>
+        <v>0.0023261862729787217</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="38">
-        <v>0.59178103432630214</v>
+        <v>0.61546040289349646</v>
       </c>
       <c r="J9" s="39">
-        <v>0.00041750944844303942</v>
+        <v>0.0053748959645308</v>
       </c>
     </row>
     <row r="10">
@@ -1022,19 +1022,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="14">
-        <v>-0.035056454807818882</v>
+        <v>-0.05414524536896264</v>
       </c>
       <c r="D10" s="15">
-        <v>-0.56731444341566739</v>
+        <v>-0.59986713391314228</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="41">
-        <v>-0.0043249715001621569</v>
+        <v>-0.0049744820266834564</v>
       </c>
       <c r="J10" s="42">
-        <v>-0.54843348240885414</v>
+        <v>-0.58550776658840897</v>
       </c>
     </row>
     <row r="11">
@@ -1042,19 +1042,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="17">
-        <v>0.085693963021034797</v>
+        <v>0.12347663075517973</v>
       </c>
       <c r="D11" s="18">
-        <v>-0.17936943311352624</v>
+        <v>-0.13005386435912997</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="44">
-        <v>0.0075830793723404167</v>
+        <v>0.0084027690935424577</v>
       </c>
       <c r="J11" s="45">
-        <v>-0.15675424666627874</v>
+        <v>-0.10166942843746588</v>
       </c>
     </row>
     <row r="12">
